--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Case</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DEXTER</t>
   </si>
   <si>
-    <t>When user id and password are valid for add_new</t>
-  </si>
-  <si>
     <t>When user id and password are valid for existing_bene</t>
   </si>
   <si>
@@ -64,6 +61,39 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_psd_y</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>VALID_INVALID</t>
+  </si>
+  <si>
+    <t>NOTHING</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_insufficient_balance</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_ivr_calling</t>
+  </si>
+  <si>
+    <t>IVRCALLING</t>
+  </si>
+  <si>
+    <t>ENABLEPSD1</t>
+  </si>
+  <si>
+    <t>PRESTIGEBRO</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_prestige_customer</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_psd_n</t>
   </si>
 </sst>
 </file>
@@ -381,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -414,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -434,12 +464,12 @@
         <v>12345678</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -454,18 +484,18 @@
         <v>12345678</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -474,27 +504,127 @@
         <v>12345678</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>12345678</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>12345678</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>12345678</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>12345678</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>12345678</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>12345678</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>12345678</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Case</t>
   </si>
@@ -51,12 +51,6 @@
     <t>DEXTER</t>
   </si>
   <si>
-    <t>When user id and password are valid for existing_bene</t>
-  </si>
-  <si>
-    <t>When user id and password are valid for existing_bene_via_home</t>
-  </si>
-  <si>
     <t>Expected_Result</t>
   </si>
   <si>
@@ -94,6 +88,33 @@
   </si>
   <si>
     <t>When user id and password are valid for add_new_psd_n</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for add_new_nrp_customer</t>
+  </si>
+  <si>
+    <t>NRPBRO</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_psd_y</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_invalid_tran_pass</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_insufficient_balance</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_ivr_calling</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_psd_n</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_prestige_customer</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for bene_nrp_customer</t>
   </si>
 </sst>
 </file>
@@ -411,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -444,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,12 +485,12 @@
         <v>12345678</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -484,18 +505,18 @@
         <v>12345678</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -504,18 +525,18 @@
         <v>12345678</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -524,18 +545,18 @@
         <v>12345678</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -544,18 +565,18 @@
         <v>12345678</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -564,18 +585,18 @@
         <v>12345678</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -584,18 +605,18 @@
         <v>12345678</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -604,12 +625,12 @@
         <v>12345678</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -624,7 +645,127 @@
         <v>12345678</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>12345678</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>12345678</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>12345678</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>12345678</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>12345678</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>12345678</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>Case</t>
   </si>
@@ -115,6 +115,42 @@
   </si>
   <si>
     <t>When user id and password are valid for bene_nrp_customer</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for AddNewSch_MBBILLNRP</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for AddNewSch_MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for AddNewSch_MBBILLPRESTIGE</t>
+  </si>
+  <si>
+    <t>MBBILLNRP</t>
+  </si>
+  <si>
+    <t>MBBILLPAYSCH</t>
+  </si>
+  <si>
+    <t>MBBILLPRESTIGE</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for BeneSch_ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for BeneSch_MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for BeneSch_MBNRPSCH</t>
+  </si>
+  <si>
+    <t>ARSLANCHANNA</t>
+  </si>
+  <si>
+    <t>MBBILLPRESTIGESCH</t>
+  </si>
+  <si>
+    <t>MBNRPSCH</t>
   </si>
 </sst>
 </file>
@@ -432,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +804,126 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>12345678</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>12345678</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>12345678</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>12345678</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>12345678</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>12345678</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Case</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>MBNRPSCH</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for BeneSch_CCCC</t>
+  </si>
+  <si>
+    <t>CCCC</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,6 +930,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>12345678</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/BillPaymentLogin.xlsx
@@ -153,10 +153,10 @@
     <t>MBNRPSCH</t>
   </si>
   <si>
-    <t>When user id and password are valid for BeneSch_CCCC</t>
-  </si>
-  <si>
-    <t>CCCC</t>
+    <t>When user id and password are valid for BeneSch_Dollar</t>
+  </si>
+  <si>
+    <t>DOLLAR123</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
